--- a/dtpu_configurations/only_integer16/80mhz/mxu_5x5/power.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_5x5/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.02662329003214836</v>
+        <v>0.03271624445915222</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.0158744715154171</v>
+        <v>0.014678911305963993</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.010431334376335144</v>
+        <v>0.010618066415190697</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.008585592731833458</v>
+        <v>0.011015959084033966</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>4.300062209949829E-5</v>
+        <v>7.989072037162259E-5</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.002673029899597168</v>
@@ -199,10 +199,10 @@
         <v>1.2604483366012573</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12655408680438995</v>
+        <v>0.12764394283294678</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4527356624603271</v>
+        <v>1.4613769054412842</v>
       </c>
     </row>
   </sheetData>
